--- a/xlsx/阿波罗11号_intext.xlsx
+++ b/xlsx/阿波罗11号_intext.xlsx
@@ -29,7 +29,7 @@
     <t>阿波罗登月舱</t>
   </si>
   <si>
-    <t>政策_政策_美國_阿波罗11号</t>
+    <t>政策_政策_美国_阿波罗11号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%B0%BC%E8%BF%AA%E8%88%AA%E5%A4%A9%E4%B8%AD%E5%BF%83</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E7%88%BE%C2%B7%E5%B2%A9%E5%A3%AB%E5%94%90</t>
   </si>
   <si>
-    <t>尼爾·岩士唐</t>
+    <t>尼尔·岩士唐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%B3%A2%E7%BD%9710%E5%8F%B7</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AE</t>
   </si>
   <si>
-    <t>白宮</t>
+    <t>白宫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A4%AD%E5%9C%86%E5%BD%A2%E5%8A%9E%E5%85%AC%E5%AE%A4</t>
@@ -275,25 +275,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A7%E9%9D%9C%E6%B5%B7_(%E6%9C%88%E7%90%83)</t>
   </si>
   <si>
-    <t>寧靜海 (月球)</t>
+    <t>宁静海 (月球)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E9%A8%8E%E5%85%B58%E8%99%9F</t>
   </si>
   <si>
-    <t>游騎兵8號</t>
+    <t>游骑兵8号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%AC%E9%87%8F%E5%93%A15%E8%99%9F</t>
   </si>
   <si>
-    <t>測量員5號</t>
+    <t>测量员5号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%90%83%E8%BB%8C%E9%81%93%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>月球軌道計畫</t>
+    <t>月球轨道计画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%B1%E5%A4%96%E6%B4%BB%E5%8A%A8</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1%E8%87%AA%E7%94%B1%E5%8B%B3%E7%AB%A0</t>
   </si>
   <si>
-    <t>總統自由勳章</t>
+    <t>总统自由勳章</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E7%BA%BF%E7%94%B5</t>
@@ -371,13 +371,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E7%AD%86</t>
   </si>
   <si>
-    <t>太空筆</t>
+    <t>太空笔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%AD%8C</t>
   </si>
   <si>
-    <t>聖歌</t>
+    <t>圣歌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B2%9B</t>
@@ -401,7 +401,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%BB%83%E8%9C%82%E8%99%9F%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%89%A6_(CV-12)</t>
   </si>
   <si>
-    <t>大黃蜂號航空母艦 (CV-12)</t>
+    <t>大黄蜂号航空母舰 (CV-12)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%8D%87%E6%9C%BA</t>
@@ -425,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%95%B7</t>
   </si>
   <si>
-    <t>州長</t>
+    <t>州长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E5%B8%AD%E5%A4%A7%E6%B3%95%E5%AE%98</t>
@@ -557,7 +557,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E7%B3%BB%E6%8E%A2%E6%B8%AC%E5%99%A8%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>太陽系探測器列表</t>
+    <t>太阳系探测器列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E9%98%BF%E6%B3%A2%E7%BD%97%E8%AE%A1%E5%88%92</t>
@@ -689,7 +689,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%A9%BA%E5%AF%A6%E9%A9%97%E5%AE%A42%E8%99%9F</t>
   </si>
   <si>
-    <t>天空實驗室2號</t>
+    <t>天空实验室2号</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Skylab_4</t>
@@ -773,7 +773,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%88%E9%A9%85%E8%80%85%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>先驅者計劃</t>
+    <t>先驱者计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%90%83%E5%8F%B7%E7%B3%BB%E5%88%97%E6%8E%A2%E6%B5%8B%E5%99%A8</t>
@@ -785,19 +785,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E9%A8%8E%E5%85%B5%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>游騎兵計畫</t>
+    <t>游骑兵计画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A2%E6%B8%AC%E5%99%A8%E8%99%9F%E7%B3%BB%E5%88%97%E6%8E%A2%E6%B8%AC%E5%99%A8</t>
   </si>
   <si>
-    <t>探測器號系列探測器</t>
+    <t>探测器号系列探测器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%AC%E9%87%8F%E5%93%A1%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>測量員計畫</t>
+    <t>测量员计画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E5%BA%A7%E8%AE%A1%E5%88%92</t>
@@ -845,7 +845,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A2%E6%B8%AC%E5%99%A85%E8%99%9F</t>
   </si>
   <si>
-    <t>探測器5號</t>
+    <t>探测器5号</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Zond_6</t>
@@ -875,7 +875,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A1%98%E6%9C%9B%E8%99%9F</t>
   </si>
   <si>
-    <t>願望號</t>
+    <t>愿望号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E8%A5%BF%E5%B0%BC-%E6%83%A0%E6%9B%B4%E6%96%AF%E5%8F%B7</t>
@@ -953,7 +953,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E8%90%8A%E9%96%80%E6%B1%80%E8%99%9F</t>
   </si>
   <si>
-    <t>克萊門汀號</t>
+    <t>克莱门汀号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%90%83%E6%8E%A2%E5%8B%98%E8%80%85</t>
@@ -1007,13 +1007,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E5%8A%9B%E5%9B%9E%E6%BA%AF%E5%8F%8A%E5%85%A7%E9%83%A8%E7%B5%90%E6%A7%8B%E5%AF%A6%E9%A9%97%E5%AE%A4</t>
   </si>
   <si>
-    <t>重力回溯及內部結構實驗室</t>
+    <t>重力回溯及内部结构实验室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%90%83%E5%A4%A7%E6%B0%A3%E8%88%87%E7%B2%89%E5%A1%B5%E7%92%B0%E5%A2%83%E6%8E%A2%E6%B8%AC%E5%99%A8</t>
   </si>
   <si>
-    <t>月球大氣與粉塵環境探測器</t>
+    <t>月球大气与粉尘环境探测器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%90%832%E5%8F%B7</t>
@@ -1079,55 +1079,55 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E9%A8%8E%E5%85%B53%E8%99%9F</t>
   </si>
   <si>
-    <t>游騎兵3號</t>
+    <t>游骑兵3号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E9%A8%8E%E5%85%B54%E8%99%9F</t>
   </si>
   <si>
-    <t>游騎兵4號</t>
+    <t>游骑兵4号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E9%A8%8E%E5%85%B55%E8%99%9F</t>
   </si>
   <si>
-    <t>游騎兵5號</t>
+    <t>游骑兵5号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E9%A8%8E%E5%85%B56%E8%99%9F</t>
   </si>
   <si>
-    <t>游騎兵6號</t>
+    <t>游骑兵6号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E9%A8%8E%E5%85%B57%E8%99%9F</t>
   </si>
   <si>
-    <t>游騎兵7號</t>
+    <t>游骑兵7号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E9%A8%8E%E5%85%B59%E8%99%9F</t>
   </si>
   <si>
-    <t>游騎兵9號</t>
+    <t>游骑兵9号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%AC%E9%87%8F%E5%93%A11%E8%99%9F</t>
   </si>
   <si>
-    <t>測量員1號</t>
+    <t>测量员1号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%AC%E9%87%8F%E5%93%A16%E8%99%9F</t>
   </si>
   <si>
-    <t>測量員6號</t>
+    <t>测量员6号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%AC%E9%87%8F%E5%93%A17%E8%99%9F</t>
   </si>
   <si>
-    <t>測量員7號</t>
+    <t>测量员7号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%90%83%E5%9D%91%E8%A7%82%E6%B5%8B%E5%92%8C%E4%BC%A0%E6%84%9F%E5%8D%AB%E6%98%9F</t>
@@ -1211,7 +1211,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%99%E5%85%89%E5%A5%B3%E7%A5%9E%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>曙光女神計劃</t>
+    <t>曙光女神计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B5%E7%89%9B%E6%98%9F%E5%8F%B7</t>
@@ -1241,7 +1241,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BB%E9%99%B8%E6%9C%88%E7%90%83</t>
   </si>
   <si>
-    <t>登陸月球</t>
+    <t>登陆月球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%A4%AA%E7%A9%BA%E6%94%BF%E7%AD%96</t>
@@ -1253,13 +1253,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E8%88%AA%E7%A9%BA%E8%AB%AE%E8%A9%A2%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>美國國家航空諮詢委員會</t>
+    <t>美国国家航空谘询委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E8%88%AA%E7%A9%BA%E6%9A%A8%E5%A4%AA%E7%A9%BA%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>美國國家航空暨太空法案</t>
+    <t>美国国家航空暨太空法案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%9D%B0%E6%96%AF%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -1271,31 +1271,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E7%AB%B6%E8%B3%BD</t>
   </si>
   <si>
-    <t>太空競賽</t>
+    <t>太空竞赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E5%A4%A9%E5%99%A8%E8%A3%9D%E9%85%8D%E5%A4%A7%E6%A8%93</t>
   </si>
   <si>
-    <t>航天器裝配大樓</t>
+    <t>航天器装配大楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E5%99%A8%E4%BA%BA%E5%A4%AA%E7%A9%BA%E8%88%B9</t>
   </si>
   <si>
-    <t>機器人太空船</t>
+    <t>机器人太空船</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%89%8B%E8%99%9F%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>水手號計劃</t>
+    <t>水手号计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%88%E9%8B%92%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>先鋒計劃</t>
+    <t>先锋计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%9B%97%E5%8F%B7</t>
@@ -1313,13 +1313,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E6%98%9F%E5%81%B5%E5%AF%9F%E5%85%B5%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>火星偵察兵計劃</t>
+    <t>火星侦察兵计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%87%E6%81%86%E6%98%9F%E5%85%B1%E5%AD%98</t>
   </si>
   <si>
-    <t>與恆星共存</t>
+    <t>与恒星共存</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%9E%8B%E8%BD%A8%E9%81%93%E5%A4%A9%E6%96%87%E5%8F%B0%E8%AE%A1%E5%88%92</t>
@@ -1337,19 +1337,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E6%B5%B7%E5%AE%B6%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>航海家計畫</t>
+    <t>航海家计画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E7%8F%BE%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>發現計劃</t>
+    <t>发现计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%96%86%E7%95%8C%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>新疆界計畫</t>
+    <t>新疆界计画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E6%98%9F%E6%8E%A2%E6%B5%8B%E6%BC%AB%E6%B8%B8%E8%80%85</t>
@@ -1367,7 +1367,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A1%E8%BB%8C%E9%81%93%E5%A4%AA%E7%A9%BA%E9%A3%9B%E8%A1%8C</t>
   </si>
   <si>
-    <t>次軌道太空飛行</t>
+    <t>次轨道太空飞行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%98%9F%E8%AE%A1%E5%88%92</t>
@@ -1409,7 +1409,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%87%E5%AE%99%E8%83%8C%E6%99%AF%E6%8E%A2%E6%B8%AC%E8%80%85</t>
   </si>
   <si>
-    <t>宇宙背景探測者</t>
+    <t>宇宙背景探测者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%98%9F-%E7%BA%A2%E7%9F%B33%E5%8F%B7</t>
@@ -1427,7 +1427,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%93%B2%E5%80%AB%E8%99%9F%E9%87%91%E6%98%9F%E6%8E%A2%E6%B8%AC%E5%99%A8</t>
   </si>
   <si>
-    <t>麥哲倫號金星探測器</t>
+    <t>麦哲伦号金星探测器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%88%E9%A9%B1%E8%80%8510%E5%8F%B7</t>
@@ -1481,13 +1481,13 @@
     <t>https://zh.wikipedia.org/wiki/2001%E7%81%AB%E6%98%9F%E5%A5%A7%E5%BE%B7%E8%B3%BD%E8%99%9F</t>
   </si>
   <si>
-    <t>2001火星奧德賽號</t>
+    <t>2001火星奥德赛号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%99%E5%85%89%E8%99%9F</t>
   </si>
   <si>
-    <t>曙光號</t>
+    <t>曙光号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A7%86%E9%87%8E%E5%8F%B7</t>
@@ -1499,7 +1499,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%8D%9C%E5%8B%92%E5%A4%AA%E7%A9%BA%E6%9C%9B%E9%81%A0%E9%8F%A1</t>
   </si>
   <si>
-    <t>克卜勒太空望遠鏡</t>
+    <t>克卜勒太空望远镜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%A9%BA%E9%97%B4%E7%AB%99</t>
@@ -1517,7 +1517,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E5%8C%B9%E5%93%B2%E5%A4%AA%E7%A9%BA%E6%9C%9B%E9%81%A0%E9%8F%A1</t>
   </si>
   <si>
-    <t>史匹哲太空望遠鏡</t>
+    <t>史匹哲太空望远镜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E9%A9%AC%E7%AC%AC%E9%AB%98%E8%83%BD%E5%A4%AA%E9%98%B3%E5%85%89%E8%B0%B1%E6%88%90%E5%83%8F%E6%8E%A2%E6%B5%8B%E5%99%A8</t>
@@ -1535,7 +1535,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E5%A5%87%E8%99%9F</t>
   </si>
   <si>
-    <t>好奇號</t>
+    <t>好奇号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%BA%E9%81%87%E5%8F%B7</t>
@@ -1553,13 +1553,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8C%83%E8%89%BE%E5%80%AB%E6%8E%A2%E6%B8%AC%E5%99%A8</t>
   </si>
   <si>
-    <t>范艾倫探測器</t>
+    <t>范艾伦探测器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E5%8B%95%E5%8A%9B%E5%AD%B8%E5%A4%A9%E6%96%87%E5%8F%B0</t>
   </si>
   <si>
-    <t>太陽動力學天文台</t>
+    <t>太阳动力学天文台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%B1%E8%AF%BA%E5%8F%B7</t>
@@ -1583,7 +1583,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E6%B5%B7%E5%AE%B61%E8%99%9F</t>
   </si>
   <si>
-    <t>航海家1號</t>
+    <t>航海家1号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%85%E8%A1%8C%E8%80%852%E5%8F%B7</t>
@@ -1595,7 +1595,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%9F%9F%E7%B4%85%E5%A4%96%E7%B7%9A%E5%B7%A1%E5%A4%A9%E6%8E%A2%E6%B8%AC%E8%A1%9B%E6%98%9F</t>
   </si>
   <si>
-    <t>廣域紅外線巡天探測衛星</t>
+    <t>广域红外线巡天探测卫星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MAVEN</t>
@@ -1613,7 +1613,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9E%E5%AF%9F%E8%99%9F</t>
   </si>
   <si>
-    <t>洞察號</t>
+    <t>洞察号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/OSIRIS-REx</t>
@@ -1625,7 +1625,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E6%98%9F2020%E6%8E%A2%E6%B8%AC%E8%BB%8A%E4%BB%BB%E5%8B%99</t>
   </si>
   <si>
-    <t>火星2020探測車任務</t>
+    <t>火星2020探测车任务</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B1%E7%A9%BA%E7%BD%91%E7%BB%9C</t>
@@ -1649,7 +1649,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
